--- a/station/station-src/src/main/resources/base_template/备用主机导入模板.xlsx
+++ b/station/station-src/src/main/resources/base_template/备用主机导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA\station\src\main\resources\base_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA\trunk02\src\main\resources\base_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,8 +645,8 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
-      <formula1>"蓄电池串联复用设备,蓄电池串联复用诊断组件"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"蓄电池串联复用设备,蓄电池串联复用诊断组件,蓄电池2V监测设备,蓄电池12V监测设备"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
